--- a/tables_ref/base_reference_EQR.xlsx
+++ b/tables_ref/base_reference_EQR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eptbvilaine56-my.sharepoint.com/personal/anthony_deburghrave_eptb-vilaine_fr/Documents/Documents/R_Anthony/tools4DCE/tables_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="834" documentId="8_{8818B9AF-3C13-44A1-AA03-ABC137A70DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD5259F-BAA3-4C44-8729-17A4B96B443F}"/>
+  <xr:revisionPtr revIDLastSave="841" documentId="8_{8818B9AF-3C13-44A1-AA03-ABC137A70DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE0C0FC-942C-416A-8C9E-8FAF7B0C77F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4400A81-55A6-4AA4-A1F5-B8A15590EF02}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D4400A81-55A6-4AA4-A1F5-B8A15590EF02}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -904,11 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177C707F-8F8B-41AD-8143-208A01ADA38D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +936,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -954,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -974,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -994,10 +993,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1014,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1034,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1054,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1074,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1094,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1114,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1134,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1154,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1174,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1194,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1214,10 +1213,10 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1234,10 +1233,10 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1254,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1274,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1294,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1314,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1334,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1354,10 +1353,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1374,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1394,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1414,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1434,10 +1433,10 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1454,10 +1453,10 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1474,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1494,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1514,10 +1513,10 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1534,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1554,10 +1553,10 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1574,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1594,10 +1593,10 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1614,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1634,10 +1633,10 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1654,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1674,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1694,10 +1693,10 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1714,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1734,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1754,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1774,10 +1773,10 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1794,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1814,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -1834,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1854,10 +1853,10 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -1874,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1894,10 +1893,10 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1914,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1934,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1954,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1974,10 +1973,10 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1994,10 +1993,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2014,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2034,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2054,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -2074,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -2094,10 +2093,10 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2114,10 +2113,10 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2134,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -2154,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -2174,10 +2173,10 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2194,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2214,10 +2213,10 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -2234,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -2254,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2274,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -2294,10 +2293,10 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -2314,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -2334,10 +2333,10 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -2354,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2374,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -2394,10 +2393,10 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -2414,10 +2413,10 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -2434,10 +2433,10 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -2454,10 +2453,10 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -2474,10 +2473,10 @@
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2494,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -2514,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -2534,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -2554,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -2574,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -2594,10 +2593,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -2614,10 +2613,10 @@
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -2634,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -2654,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -2674,10 +2673,10 @@
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -2694,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -2714,10 +2713,10 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -2734,10 +2733,10 @@
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -2754,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -2774,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -2794,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -2814,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -2834,10 +2833,10 @@
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -2854,10 +2853,10 @@
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -2874,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -2894,10 +2893,10 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -2914,10 +2913,10 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -2934,10 +2933,10 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>39</v>
       </c>
@@ -2954,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -2974,10 +2973,10 @@
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -2994,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -3014,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -3034,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -3054,10 +3053,10 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -3074,10 +3073,10 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -3094,10 +3093,10 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -3114,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -3134,10 +3133,10 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -3154,10 +3153,10 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -3174,10 +3173,10 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -3194,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -3214,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>39</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>39</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>39</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -3834,10 +3833,10 @@
         <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -3854,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -3874,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -3894,10 +3893,10 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -3914,10 +3913,10 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -3934,10 +3933,10 @@
         <v>5</v>
       </c>
       <c r="F151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3954,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -3974,10 +3973,10 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -3994,10 +3993,10 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -4014,10 +4013,10 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -4034,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -4054,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="F157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -4074,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -4094,10 +4093,10 @@
         <v>5</v>
       </c>
       <c r="F159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -4114,10 +4113,10 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -4134,10 +4133,10 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -4154,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -4174,10 +4173,10 @@
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -4194,10 +4193,10 @@
         <v>5</v>
       </c>
       <c r="F164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>39</v>
       </c>
@@ -4214,10 +4213,10 @@
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -4234,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -4254,10 +4253,10 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>39</v>
       </c>
@@ -4274,10 +4273,10 @@
         <v>5</v>
       </c>
       <c r="F168" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -4294,10 +4293,10 @@
         <v>5</v>
       </c>
       <c r="F169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -4314,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -7499,11 +7498,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F329" xr:uid="{177C707F-8F8B-41AD-8143-208A01ADA38D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="IBMR"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A313:F321">
       <sortCondition ref="C1:C329"/>
     </sortState>

--- a/tables_ref/base_reference_EQR.xlsx
+++ b/tables_ref/base_reference_EQR.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eptbvilaine56-my.sharepoint.com/personal/anthony_deburghrave_eptb-vilaine_fr/Documents/Documents/R_Anthony/tools4DCE/tables_ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="841" documentId="8_{8818B9AF-3C13-44A1-AA03-ABC137A70DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE0C0FC-942C-416A-8C9E-8FAF7B0C77F2}"/>
+  <xr:revisionPtr revIDLastSave="1112" documentId="8_{8818B9AF-3C13-44A1-AA03-ABC137A70DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B15EFA-C157-4536-908D-93B476EB0854}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D4400A81-55A6-4AA4-A1F5-B8A15590EF02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4400A81-55A6-4AA4-A1F5-B8A15590EF02}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$335</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="175">
   <si>
     <t>CdParametre</t>
   </si>
@@ -553,6 +553,15 @@
   </si>
   <si>
     <t>G14</t>
+  </si>
+  <si>
+    <t>TG12-A</t>
+  </si>
+  <si>
+    <t>IBG (Grand CE)</t>
+  </si>
+  <si>
+    <t>M17/3-21</t>
   </si>
 </sst>
 </file>
@@ -904,10 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177C707F-8F8B-41AD-8143-208A01ADA38D}">
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,7 +1034,7 @@
         <v>5856</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="D6">
         <v>17.399999999999999</v>
@@ -1044,7 +1054,7 @@
         <v>5856</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="D7">
         <v>17.399999999999999</v>
@@ -1053,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,16 +1074,16 @@
         <v>5856</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,16 +1094,16 @@
         <v>5856</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,16 +1114,16 @@
         <v>5856</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,16 +1134,16 @@
         <v>5856</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,16 +1154,16 @@
         <v>5856</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,16 +1174,16 @@
         <v>5856</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,16 +1194,16 @@
         <v>5856</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,7 +1214,7 @@
         <v>5856</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>19</v>
@@ -1213,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,16 +1234,16 @@
         <v>5856</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,7 +1254,7 @@
         <v>5856</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1253,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,16 +1274,16 @@
         <v>5856</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,16 +1294,16 @@
         <v>5856</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D19">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,16 +1314,16 @@
         <v>5856</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,7 +1334,7 @@
         <v>5856</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>18.100000000000001</v>
@@ -1333,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,7 +1354,7 @@
         <v>5856</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>19</v>
@@ -1353,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,16 +1374,16 @@
         <v>5856</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,7 +1394,7 @@
         <v>5856</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -1393,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,16 +1414,16 @@
         <v>5856</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="D25">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,7 +1434,7 @@
         <v>5856</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>19</v>
@@ -1433,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,16 +1454,16 @@
         <v>5856</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,16 +1474,16 @@
         <v>5856</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,16 +1494,16 @@
         <v>5856</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,7 +1514,7 @@
         <v>5856</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D30">
         <v>20</v>
@@ -1513,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,16 +1534,16 @@
         <v>5856</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,7 +1554,7 @@
         <v>5856</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>20</v>
@@ -1553,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,16 +1574,16 @@
         <v>5856</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,7 +1594,7 @@
         <v>5856</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>20</v>
@@ -1593,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,16 +1614,16 @@
         <v>5856</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,16 +1634,16 @@
         <v>5856</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,16 +1654,16 @@
         <v>5856</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,16 +1674,16 @@
         <v>5856</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,16 +1694,16 @@
         <v>5856</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,16 +1714,16 @@
         <v>5856</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,16 +1734,16 @@
         <v>5856</v>
       </c>
       <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
         <v>19</v>
       </c>
-      <c r="D41">
-        <v>18.100000000000001</v>
-      </c>
       <c r="E41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,16 +1754,16 @@
         <v>5856</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,16 +1774,16 @@
         <v>5856</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,7 +1794,7 @@
         <v>5856</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D44">
         <v>19</v>
@@ -1793,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,16 +1814,16 @@
         <v>5856</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="D45">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,16 +1834,16 @@
         <v>5856</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D46">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,16 +1854,16 @@
         <v>5856</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>18.399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,16 +1874,16 @@
         <v>5856</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,16 +1894,16 @@
         <v>5856</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E49">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,7 +1914,7 @@
         <v>5856</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D50">
         <v>18.100000000000001</v>
@@ -1913,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,16 +1934,16 @@
         <v>5856</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D51">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,7 +1954,7 @@
         <v>5856</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D52">
         <v>18.100000000000001</v>
@@ -1953,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,16 +1974,16 @@
         <v>5856</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,16 +1994,16 @@
         <v>5856</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,7 +2014,7 @@
         <v>5856</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>19</v>
@@ -2013,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,16 +2034,16 @@
         <v>5856</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,16 +2054,16 @@
         <v>5856</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D57">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,16 +2074,16 @@
         <v>5856</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="D58">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,16 +2094,16 @@
         <v>5856</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,16 +2114,16 @@
         <v>5856</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,16 +2134,16 @@
         <v>5856</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,16 +2154,16 @@
         <v>5856</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D62">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,16 +2174,16 @@
         <v>5856</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,7 +2194,7 @@
         <v>5856</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>18.100000000000001</v>
@@ -2193,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2204,7 +2214,7 @@
         <v>5856</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>19</v>
@@ -2213,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2224,16 +2234,16 @@
         <v>5856</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="D66">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,7 +2254,7 @@
         <v>5856</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>19</v>
@@ -2253,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,16 +2274,16 @@
         <v>5856</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D68">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,7 +2294,7 @@
         <v>5856</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D69">
         <v>19</v>
@@ -2293,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,16 +2314,16 @@
         <v>5856</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2324,16 +2334,16 @@
         <v>5856</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,16 +2354,16 @@
         <v>5856</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2364,16 +2374,16 @@
         <v>5856</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D73">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,7 +2394,7 @@
         <v>5856</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -2393,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,16 +2414,16 @@
         <v>5856</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,16 +2434,16 @@
         <v>5856</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,7 +2454,7 @@
         <v>5856</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -2453,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2464,16 +2474,16 @@
         <v>5856</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,16 +2494,16 @@
         <v>5856</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,16 +2514,16 @@
         <v>5856</v>
       </c>
       <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80">
         <v>20</v>
-      </c>
-      <c r="D80">
-        <v>19</v>
       </c>
       <c r="E80">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,16 +2534,16 @@
         <v>5856</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D81">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,16 +2554,16 @@
         <v>5856</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D82">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,16 +2574,16 @@
         <v>5856</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +2594,7 @@
         <v>5856</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D84">
         <v>18.100000000000001</v>
@@ -2593,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,16 +2614,16 @@
         <v>5856</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,7 +2634,7 @@
         <v>5856</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D86">
         <v>18.100000000000001</v>
@@ -2633,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,16 +2654,16 @@
         <v>5856</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D87">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,16 +2674,16 @@
         <v>5856</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,16 +2694,16 @@
         <v>5856</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D89">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,16 +2714,16 @@
         <v>5856</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D90">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,16 +2734,16 @@
         <v>5856</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>18.399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,16 +2754,16 @@
         <v>5856</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D92">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,16 +2774,16 @@
         <v>5856</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E93">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,7 +2794,7 @@
         <v>5856</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D94">
         <v>18.100000000000001</v>
@@ -2793,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,7 +2814,7 @@
         <v>5856</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D95">
         <v>20</v>
@@ -2813,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2824,16 +2834,16 @@
         <v>5856</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,16 +2854,16 @@
         <v>5856</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,16 +2874,16 @@
         <v>5856</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D98">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,7 +2894,7 @@
         <v>5856</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D99">
         <v>19</v>
@@ -2893,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2904,16 +2914,16 @@
         <v>5856</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,7 +2934,7 @@
         <v>5856</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="D101">
         <v>19</v>
@@ -2933,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,7 +2954,7 @@
         <v>5856</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D102">
         <v>18.100000000000001</v>
@@ -2953,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,16 +2974,16 @@
         <v>5856</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2984,7 +2994,7 @@
         <v>5856</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D104">
         <v>18.100000000000001</v>
@@ -2993,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,16 +3014,16 @@
         <v>5856</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,16 +3034,16 @@
         <v>5856</v>
       </c>
       <c r="C106" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="D106">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3044,7 +3054,7 @@
         <v>5856</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>19</v>
@@ -3053,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,16 +3074,16 @@
         <v>5856</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D108">
-        <v>19</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,16 +3094,16 @@
         <v>5856</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,16 +3114,16 @@
         <v>5856</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="D110">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,7 +3134,7 @@
         <v>5856</v>
       </c>
       <c r="C111" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D111">
         <v>20</v>
@@ -3133,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,16 +3154,16 @@
         <v>5856</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D112">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,16 +3174,16 @@
         <v>5856</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D113">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,16 +3194,16 @@
         <v>5856</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D114">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F114" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3204,16 +3214,16 @@
         <v>5856</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D115">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,7 +3234,7 @@
         <v>5856</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="D116">
         <v>18.100000000000001</v>
@@ -3233,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,7 +3254,7 @@
         <v>5856</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="D117">
         <v>18.100000000000001</v>
@@ -3253,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,7 +3274,7 @@
         <v>5856</v>
       </c>
       <c r="C118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D118">
         <v>18.100000000000001</v>
@@ -3284,7 +3294,7 @@
         <v>5856</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D119">
         <v>18.100000000000001</v>
@@ -3304,13 +3314,13 @@
         <v>5856</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D120">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
         <v>166</v>
@@ -3324,10 +3334,10 @@
         <v>5856</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D121">
-        <v>19.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -3344,13 +3354,13 @@
         <v>5856</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D122">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" t="s">
         <v>166</v>
@@ -3364,10 +3374,10 @@
         <v>5856</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D123">
-        <v>18.100000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3384,7 +3394,7 @@
         <v>5856</v>
       </c>
       <c r="C124" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D124">
         <v>18.100000000000001</v>
@@ -3404,7 +3414,7 @@
         <v>5856</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D125">
         <v>18.100000000000001</v>
@@ -3424,7 +3434,7 @@
         <v>5856</v>
       </c>
       <c r="C126" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D126">
         <v>18.100000000000001</v>
@@ -3444,7 +3454,7 @@
         <v>5856</v>
       </c>
       <c r="C127" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D127">
         <v>18.100000000000001</v>
@@ -3464,7 +3474,7 @@
         <v>5856</v>
       </c>
       <c r="C128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D128">
         <v>18.100000000000001</v>
@@ -3484,7 +3494,7 @@
         <v>5856</v>
       </c>
       <c r="C129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D129">
         <v>18.100000000000001</v>
@@ -3504,7 +3514,7 @@
         <v>5856</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D130">
         <v>18.100000000000001</v>
@@ -3524,7 +3534,7 @@
         <v>5856</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D131">
         <v>18.100000000000001</v>
@@ -3544,7 +3554,7 @@
         <v>5856</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="D132">
         <v>18.100000000000001</v>
@@ -3564,7 +3574,7 @@
         <v>5856</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="D133">
         <v>18.100000000000001</v>
@@ -3584,13 +3594,13 @@
         <v>5856</v>
       </c>
       <c r="C134" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>166</v>
@@ -3604,10 +3614,10 @@
         <v>5856</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="D135">
-        <v>19.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -3624,13 +3634,13 @@
         <v>5856</v>
       </c>
       <c r="C136" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D136">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F136" t="s">
         <v>166</v>
@@ -3644,16 +3654,16 @@
         <v>5856</v>
       </c>
       <c r="C137" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,16 +3674,16 @@
         <v>5856</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D138">
-        <v>19.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,13 +3694,13 @@
         <v>5856</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D139">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F139" t="s">
         <v>166</v>
@@ -3704,16 +3714,16 @@
         <v>5856</v>
       </c>
       <c r="C140" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,16 +3734,16 @@
         <v>5856</v>
       </c>
       <c r="C141" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D141">
-        <v>19.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,13 +3754,13 @@
         <v>5856</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D142">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" t="s">
         <v>166</v>
@@ -3764,10 +3774,10 @@
         <v>5856</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D143">
-        <v>18.100000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -3784,7 +3794,7 @@
         <v>5856</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144">
         <v>18.100000000000001</v>
@@ -3804,7 +3814,7 @@
         <v>5856</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145">
         <v>18.100000000000001</v>
@@ -3824,13 +3834,13 @@
         <v>5856</v>
       </c>
       <c r="C146" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
         <v>166</v>
@@ -3844,7 +3854,7 @@
         <v>5856</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D147">
         <v>18.100000000000001</v>
@@ -3853,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3864,16 +3874,16 @@
         <v>5856</v>
       </c>
       <c r="C148" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D148">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,16 +3894,16 @@
         <v>5856</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D149">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,16 +3914,16 @@
         <v>5856</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="D150">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,16 +3934,16 @@
         <v>5856</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D151">
-        <v>18.399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,16 +3954,16 @@
         <v>5856</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D152">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,16 +3974,16 @@
         <v>5856</v>
       </c>
       <c r="C153" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D153">
-        <v>18.100000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3984,16 +3994,16 @@
         <v>5856</v>
       </c>
       <c r="C154" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D154">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,16 +4014,16 @@
         <v>5856</v>
       </c>
       <c r="C155" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D155">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,16 +4034,16 @@
         <v>5856</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D156">
-        <v>17.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,7 +4054,7 @@
         <v>5856</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D157">
         <v>19</v>
@@ -4053,7 +4063,7 @@
         <v>5</v>
       </c>
       <c r="F157" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4064,16 +4074,16 @@
         <v>5856</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>18.100000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,16 +4094,16 @@
         <v>5856</v>
       </c>
       <c r="C159" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159">
         <v>5</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,7 +4114,7 @@
         <v>5856</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D160">
         <v>18.100000000000001</v>
@@ -4113,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,16 +4134,16 @@
         <v>5856</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D161">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,16 +4154,16 @@
         <v>5856</v>
       </c>
       <c r="C162" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="D162">
-        <v>17.399999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,7 +4174,7 @@
         <v>5856</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D163">
         <v>19</v>
@@ -4173,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,16 +4194,16 @@
         <v>5856</v>
       </c>
       <c r="C164" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D164">
-        <v>19</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,16 +4214,16 @@
         <v>5856</v>
       </c>
       <c r="C165" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E165">
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,16 +4234,16 @@
         <v>5856</v>
       </c>
       <c r="C166" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="D166">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,7 +4254,7 @@
         <v>5856</v>
       </c>
       <c r="C167" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D167">
         <v>20</v>
@@ -4253,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,16 +4274,16 @@
         <v>5856</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D168">
-        <v>19</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,16 +4294,16 @@
         <v>5856</v>
       </c>
       <c r="C169" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D169">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>5</v>
       </c>
       <c r="F169" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,16 +4314,16 @@
         <v>5856</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D170">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F170" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,16 +4334,16 @@
         <v>5856</v>
       </c>
       <c r="C171" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D171">
-        <v>19.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,7 +4354,7 @@
         <v>5856</v>
       </c>
       <c r="C172" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="D172">
         <v>18.100000000000001</v>
@@ -4353,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,56 +4374,56 @@
         <v>5856</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D173">
-        <v>18.100000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B174">
-        <v>2928</v>
+        <v>5856</v>
       </c>
       <c r="C174" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D174">
-        <v>12.94</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B175">
-        <v>2928</v>
+        <v>5856</v>
       </c>
       <c r="C175" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D175">
-        <v>13.17</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,10 +4434,10 @@
         <v>2928</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="D176">
-        <v>14</v>
+        <v>12.94</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -4444,10 +4454,10 @@
         <v>2928</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>14</v>
+        <v>13.17</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -4464,10 +4474,10 @@
         <v>2928</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D178">
-        <v>9.3800000000000008</v>
+        <v>14</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -4484,10 +4494,10 @@
         <v>2928</v>
       </c>
       <c r="C179" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="D179">
-        <v>9.3800000000000008</v>
+        <v>14</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -4504,7 +4514,7 @@
         <v>2928</v>
       </c>
       <c r="C180" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="D180">
         <v>9.3800000000000008</v>
@@ -4524,7 +4534,7 @@
         <v>2928</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D181">
         <v>9.3800000000000008</v>
@@ -4544,7 +4554,7 @@
         <v>2928</v>
       </c>
       <c r="C182" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D182">
         <v>9.3800000000000008</v>
@@ -4564,10 +4574,10 @@
         <v>2928</v>
       </c>
       <c r="C183" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D183">
-        <v>11.17</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4584,7 +4594,7 @@
         <v>2928</v>
       </c>
       <c r="C184" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D184">
         <v>9.3800000000000008</v>
@@ -4604,7 +4614,7 @@
         <v>2928</v>
       </c>
       <c r="C185" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="D185">
         <v>11.17</v>
@@ -4624,10 +4634,10 @@
         <v>2928</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="D186">
-        <v>13.17</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -4644,10 +4654,10 @@
         <v>2928</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D187">
-        <v>14.61</v>
+        <v>11.17</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -4664,10 +4674,10 @@
         <v>2928</v>
       </c>
       <c r="C188" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D188">
-        <v>14.61</v>
+        <v>13.17</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -4684,10 +4694,10 @@
         <v>2928</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D189">
-        <v>13.09</v>
+        <v>14.61</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -4704,10 +4714,10 @@
         <v>2928</v>
       </c>
       <c r="C190" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D190">
-        <v>14</v>
+        <v>14.61</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -4724,10 +4734,10 @@
         <v>2928</v>
       </c>
       <c r="C191" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>13.09</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -4744,10 +4754,10 @@
         <v>2928</v>
       </c>
       <c r="C192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D192">
-        <v>13.09</v>
+        <v>14</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -4764,10 +4774,10 @@
         <v>2928</v>
       </c>
       <c r="C193" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D193">
-        <v>13.09</v>
+        <v>14</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -4784,7 +4794,7 @@
         <v>2928</v>
       </c>
       <c r="C194" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D194">
         <v>13.09</v>
@@ -4804,10 +4814,10 @@
         <v>2928</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D195">
-        <v>9.3800000000000008</v>
+        <v>13.09</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -4824,10 +4834,10 @@
         <v>2928</v>
       </c>
       <c r="C196" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D196">
-        <v>12.94</v>
+        <v>13.09</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -4844,10 +4854,10 @@
         <v>2928</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>13.09</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -4864,10 +4874,10 @@
         <v>2928</v>
       </c>
       <c r="C198" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D198">
-        <v>9.3800000000000008</v>
+        <v>12.94</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -4884,10 +4894,10 @@
         <v>2928</v>
       </c>
       <c r="C199" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="D199">
-        <v>11.17</v>
+        <v>13.09</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -4904,10 +4914,10 @@
         <v>2928</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4924,10 +4934,10 @@
         <v>2928</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D201">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4944,10 +4954,10 @@
         <v>2928</v>
       </c>
       <c r="C202" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D202">
-        <v>9.3800000000000008</v>
+        <v>9</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -4964,10 +4974,10 @@
         <v>2928</v>
       </c>
       <c r="C203" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D203">
-        <v>13.09</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -4984,7 +4994,7 @@
         <v>2928</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D204">
         <v>9.3800000000000008</v>
@@ -5004,10 +5014,10 @@
         <v>2928</v>
       </c>
       <c r="C205" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D205">
-        <v>9.3800000000000008</v>
+        <v>13.09</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -5024,7 +5034,7 @@
         <v>2928</v>
       </c>
       <c r="C206" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D206">
         <v>9.3800000000000008</v>
@@ -5044,10 +5054,10 @@
         <v>2928</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D207">
-        <v>13.09</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -5064,10 +5074,10 @@
         <v>2928</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D208">
-        <v>13.09</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5084,10 +5094,10 @@
         <v>2928</v>
       </c>
       <c r="C209" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D209">
-        <v>11.17</v>
+        <v>13.09</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -5104,7 +5114,7 @@
         <v>2928</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D210">
         <v>13.09</v>
@@ -5124,10 +5134,10 @@
         <v>2928</v>
       </c>
       <c r="C211" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D211">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -5144,10 +5154,10 @@
         <v>2928</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D212">
-        <v>9.3800000000000008</v>
+        <v>13.09</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -5164,7 +5174,7 @@
         <v>2928</v>
       </c>
       <c r="C213" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D213">
         <v>9.3800000000000008</v>
@@ -5184,10 +5194,10 @@
         <v>2928</v>
       </c>
       <c r="C214" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D214">
-        <v>11.17</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -5204,7 +5214,7 @@
         <v>2928</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D215">
         <v>9.3800000000000008</v>
@@ -5224,7 +5234,7 @@
         <v>2928</v>
       </c>
       <c r="C216" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D216">
         <v>11.17</v>
@@ -5244,10 +5254,10 @@
         <v>2928</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D217">
-        <v>11.17</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -5264,7 +5274,7 @@
         <v>2928</v>
       </c>
       <c r="C218" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D218">
         <v>11.17</v>
@@ -5284,7 +5294,7 @@
         <v>2928</v>
       </c>
       <c r="C219" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D219">
         <v>11.17</v>
@@ -5304,7 +5314,7 @@
         <v>2928</v>
       </c>
       <c r="C220" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D220">
         <v>11.17</v>
@@ -5324,10 +5334,10 @@
         <v>2928</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D221">
-        <v>13.09</v>
+        <v>11.17</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -5344,7 +5354,7 @@
         <v>2928</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D222">
         <v>11.17</v>
@@ -5364,10 +5374,10 @@
         <v>2928</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>11.17</v>
+        <v>13.09</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -5384,10 +5394,10 @@
         <v>2928</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>13.09</v>
+        <v>11.17</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -5404,10 +5414,10 @@
         <v>2928</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D225">
-        <v>13.09</v>
+        <v>11.17</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -5424,7 +5434,7 @@
         <v>2928</v>
       </c>
       <c r="C226" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D226">
         <v>13.09</v>
@@ -5444,7 +5454,7 @@
         <v>2928</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D227">
         <v>13.09</v>
@@ -5464,7 +5474,7 @@
         <v>2928</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D228">
         <v>13.09</v>
@@ -5484,7 +5494,7 @@
         <v>2928</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D229">
         <v>13.09</v>
@@ -5504,7 +5514,7 @@
         <v>2928</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D230">
         <v>13.09</v>
@@ -5524,10 +5534,10 @@
         <v>2928</v>
       </c>
       <c r="C231" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D231">
-        <v>11.17</v>
+        <v>13.09</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -5544,7 +5554,7 @@
         <v>2928</v>
       </c>
       <c r="C232" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D232">
         <v>13.09</v>
@@ -5564,10 +5574,10 @@
         <v>2928</v>
       </c>
       <c r="C233" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D233">
-        <v>13.09</v>
+        <v>11.17</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -5584,10 +5594,10 @@
         <v>2928</v>
       </c>
       <c r="C234" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D234">
-        <v>11.17</v>
+        <v>13.09</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -5604,10 +5614,10 @@
         <v>2928</v>
       </c>
       <c r="C235" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D235">
-        <v>11.17</v>
+        <v>13.09</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -5624,7 +5634,7 @@
         <v>2928</v>
       </c>
       <c r="C236" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D236">
         <v>11.17</v>
@@ -5644,7 +5654,7 @@
         <v>2928</v>
       </c>
       <c r="C237" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D237">
         <v>11.17</v>
@@ -5664,7 +5674,7 @@
         <v>2928</v>
       </c>
       <c r="C238" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D238">
         <v>11.17</v>
@@ -5684,7 +5694,7 @@
         <v>2928</v>
       </c>
       <c r="C239" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D239">
         <v>11.17</v>
@@ -5704,7 +5714,7 @@
         <v>2928</v>
       </c>
       <c r="C240" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D240">
         <v>11.17</v>
@@ -5724,7 +5734,7 @@
         <v>2928</v>
       </c>
       <c r="C241" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D241">
         <v>11.17</v>
@@ -5744,7 +5754,7 @@
         <v>2928</v>
       </c>
       <c r="C242" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D242">
         <v>11.17</v>
@@ -5764,10 +5774,10 @@
         <v>2928</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D243">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5784,10 +5794,10 @@
         <v>2928</v>
       </c>
       <c r="C244" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D244">
-        <v>12.94</v>
+        <v>11.17</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -5804,10 +5814,10 @@
         <v>2928</v>
       </c>
       <c r="C245" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="D245">
-        <v>14.61</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -5824,10 +5834,10 @@
         <v>2928</v>
       </c>
       <c r="C246" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D246">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -5844,10 +5854,10 @@
         <v>2928</v>
       </c>
       <c r="C247" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D247">
-        <v>11.17</v>
+        <v>14.61</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -5864,10 +5874,10 @@
         <v>2928</v>
       </c>
       <c r="C248" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D248">
-        <v>12.94</v>
+        <v>11.17</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5884,10 +5894,10 @@
         <v>2928</v>
       </c>
       <c r="C249" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D249">
-        <v>12.94</v>
+        <v>11.17</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -5904,10 +5914,10 @@
         <v>2928</v>
       </c>
       <c r="C250" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D250">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -5924,10 +5934,10 @@
         <v>2928</v>
       </c>
       <c r="C251" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D251">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -5944,7 +5954,7 @@
         <v>2928</v>
       </c>
       <c r="C252" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D252">
         <v>11.17</v>
@@ -5964,7 +5974,7 @@
         <v>2928</v>
       </c>
       <c r="C253" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D253">
         <v>11.17</v>
@@ -5984,10 +5994,10 @@
         <v>2928</v>
       </c>
       <c r="C254" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D254">
-        <v>13.17</v>
+        <v>11.17</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -6004,10 +6014,10 @@
         <v>2928</v>
       </c>
       <c r="C255" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D255">
-        <v>13.17</v>
+        <v>11.17</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6024,10 +6034,10 @@
         <v>2928</v>
       </c>
       <c r="C256" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D256">
-        <v>12.94</v>
+        <v>13.17</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -6044,7 +6054,7 @@
         <v>2928</v>
       </c>
       <c r="C257" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D257">
         <v>13.17</v>
@@ -6064,10 +6074,10 @@
         <v>2928</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D258">
-        <v>13.17</v>
+        <v>12.94</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -6084,10 +6094,10 @@
         <v>2928</v>
       </c>
       <c r="C259" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D259">
-        <v>12.94</v>
+        <v>13.17</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -6104,7 +6114,7 @@
         <v>2928</v>
       </c>
       <c r="C260" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D260">
         <v>13.17</v>
@@ -6124,7 +6134,7 @@
         <v>2928</v>
       </c>
       <c r="C261" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D261">
         <v>12.94</v>
@@ -6144,10 +6154,10 @@
         <v>2928</v>
       </c>
       <c r="C262" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D262">
-        <v>11.17</v>
+        <v>13.17</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6164,10 +6174,10 @@
         <v>2928</v>
       </c>
       <c r="C263" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D263">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6184,7 +6194,7 @@
         <v>2928</v>
       </c>
       <c r="C264" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D264">
         <v>11.17</v>
@@ -6204,7 +6214,7 @@
         <v>2928</v>
       </c>
       <c r="C265" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D265">
         <v>11.17</v>
@@ -6224,7 +6234,7 @@
         <v>2928</v>
       </c>
       <c r="C266" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D266">
         <v>11.17</v>
@@ -6244,7 +6254,7 @@
         <v>2928</v>
       </c>
       <c r="C267" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D267">
         <v>11.17</v>
@@ -6264,7 +6274,7 @@
         <v>2928</v>
       </c>
       <c r="C268" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D268">
         <v>11.17</v>
@@ -6284,10 +6294,10 @@
         <v>2928</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D269">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6304,10 +6314,10 @@
         <v>2928</v>
       </c>
       <c r="C270" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="D270">
-        <v>12.94</v>
+        <v>11.17</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6324,10 +6334,10 @@
         <v>2928</v>
       </c>
       <c r="C271" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D271">
-        <v>12.94</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6344,10 +6354,10 @@
         <v>2928</v>
       </c>
       <c r="C272" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D272">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6364,10 +6374,10 @@
         <v>2928</v>
       </c>
       <c r="C273" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D273">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6384,7 +6394,7 @@
         <v>2928</v>
       </c>
       <c r="C274" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D274">
         <v>11.17</v>
@@ -6404,7 +6414,7 @@
         <v>2928</v>
       </c>
       <c r="C275" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D275">
         <v>11.17</v>
@@ -6424,7 +6434,7 @@
         <v>2928</v>
       </c>
       <c r="C276" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D276">
         <v>11.17</v>
@@ -6444,10 +6454,10 @@
         <v>2928</v>
       </c>
       <c r="C277" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D277">
-        <v>13.17</v>
+        <v>11.17</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6464,10 +6474,10 @@
         <v>2928</v>
       </c>
       <c r="C278" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D278">
-        <v>13.17</v>
+        <v>11.17</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6484,10 +6494,10 @@
         <v>2928</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D279">
-        <v>11.17</v>
+        <v>13.17</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6504,10 +6514,10 @@
         <v>2928</v>
       </c>
       <c r="C280" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D280">
-        <v>12.94</v>
+        <v>13.17</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6524,10 +6534,10 @@
         <v>2928</v>
       </c>
       <c r="C281" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D281">
-        <v>13.17</v>
+        <v>11.17</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6544,7 +6554,7 @@
         <v>2928</v>
       </c>
       <c r="C282" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D282">
         <v>12.94</v>
@@ -6564,10 +6574,10 @@
         <v>2928</v>
       </c>
       <c r="C283" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D283">
-        <v>11.17</v>
+        <v>13.17</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6584,10 +6594,10 @@
         <v>2928</v>
       </c>
       <c r="C284" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D284">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -6604,10 +6614,10 @@
         <v>2928</v>
       </c>
       <c r="C285" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D285">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -6624,10 +6634,10 @@
         <v>2928</v>
       </c>
       <c r="C286" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D286">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -6644,7 +6654,7 @@
         <v>2928</v>
       </c>
       <c r="C287" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D287">
         <v>9.3800000000000008</v>
@@ -6664,7 +6674,7 @@
         <v>2928</v>
       </c>
       <c r="C288" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D288">
         <v>9.3800000000000008</v>
@@ -6684,7 +6694,7 @@
         <v>2928</v>
       </c>
       <c r="C289" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D289">
         <v>9.3800000000000008</v>
@@ -6704,7 +6714,7 @@
         <v>2928</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D290">
         <v>9.3800000000000008</v>
@@ -6724,7 +6734,7 @@
         <v>2928</v>
       </c>
       <c r="C291" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D291">
         <v>9.3800000000000008</v>
@@ -6744,7 +6754,7 @@
         <v>2928</v>
       </c>
       <c r="C292" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D292">
         <v>9.3800000000000008</v>
@@ -6764,7 +6774,7 @@
         <v>2928</v>
       </c>
       <c r="C293" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D293">
         <v>9.3800000000000008</v>
@@ -6784,7 +6794,7 @@
         <v>2928</v>
       </c>
       <c r="C294" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D294">
         <v>9.3800000000000008</v>
@@ -6804,7 +6814,7 @@
         <v>2928</v>
       </c>
       <c r="C295" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D295">
         <v>9.3800000000000008</v>
@@ -6824,10 +6834,10 @@
         <v>2928</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D296">
-        <v>11.17</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -6844,10 +6854,10 @@
         <v>2928</v>
       </c>
       <c r="C297" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="D297">
-        <v>12.94</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -6864,7 +6874,7 @@
         <v>2928</v>
       </c>
       <c r="C298" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D298">
         <v>11.17</v>
@@ -6884,10 +6894,10 @@
         <v>2928</v>
       </c>
       <c r="C299" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D299">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -6904,10 +6914,10 @@
         <v>2928</v>
       </c>
       <c r="C300" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D300">
-        <v>12.94</v>
+        <v>11.17</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -6924,10 +6934,10 @@
         <v>2928</v>
       </c>
       <c r="C301" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D301">
-        <v>13.17</v>
+        <v>11.17</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -6944,10 +6954,10 @@
         <v>2928</v>
       </c>
       <c r="C302" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="D302">
-        <v>13.17</v>
+        <v>12.94</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -6964,10 +6974,10 @@
         <v>2928</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D303">
-        <v>14</v>
+        <v>13.17</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -6984,10 +6994,10 @@
         <v>2928</v>
       </c>
       <c r="C304" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D304">
-        <v>14.61</v>
+        <v>13.17</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -7004,10 +7014,10 @@
         <v>2928</v>
       </c>
       <c r="C305" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D305">
-        <v>12.94</v>
+        <v>14</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -7024,10 +7034,10 @@
         <v>2928</v>
       </c>
       <c r="C306" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="D306">
-        <v>11.17</v>
+        <v>14.61</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -7044,10 +7054,10 @@
         <v>2928</v>
       </c>
       <c r="C307" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D307">
-        <v>11.17</v>
+        <v>12.94</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -7064,10 +7074,10 @@
         <v>2928</v>
       </c>
       <c r="C308" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D308">
-        <v>9</v>
+        <v>11.17</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -7084,10 +7094,10 @@
         <v>2928</v>
       </c>
       <c r="C309" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D309">
-        <v>9</v>
+        <v>11.17</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -7104,10 +7114,10 @@
         <v>2928</v>
       </c>
       <c r="C310" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D310">
-        <v>11.17</v>
+        <v>9</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -7124,10 +7134,10 @@
         <v>2928</v>
       </c>
       <c r="C311" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="D311">
-        <v>9.3800000000000008</v>
+        <v>9</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -7144,10 +7154,10 @@
         <v>2928</v>
       </c>
       <c r="C312" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D312">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -7164,10 +7174,10 @@
         <v>2928</v>
       </c>
       <c r="C313" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D313">
-        <v>11.17</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -7184,10 +7194,10 @@
         <v>2928</v>
       </c>
       <c r="C314" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D314">
-        <v>14.61</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -7204,10 +7214,10 @@
         <v>2928</v>
       </c>
       <c r="C315" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D315">
-        <v>14.61</v>
+        <v>11.17</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -7224,7 +7234,7 @@
         <v>2928</v>
       </c>
       <c r="C316" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D316">
         <v>14.61</v>
@@ -7244,10 +7254,10 @@
         <v>2928</v>
       </c>
       <c r="C317" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D317">
-        <v>11.17</v>
+        <v>14.61</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -7264,10 +7274,10 @@
         <v>2928</v>
       </c>
       <c r="C318" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D318">
-        <v>11.17</v>
+        <v>14.61</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -7284,10 +7294,10 @@
         <v>2928</v>
       </c>
       <c r="C319" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D319">
-        <v>13.09</v>
+        <v>11.17</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -7304,10 +7314,10 @@
         <v>2928</v>
       </c>
       <c r="C320" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D320">
-        <v>9.3800000000000008</v>
+        <v>11.17</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -7324,10 +7334,10 @@
         <v>2928</v>
       </c>
       <c r="C321" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D321">
-        <v>14.61</v>
+        <v>13.09</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -7344,10 +7354,10 @@
         <v>2928</v>
       </c>
       <c r="C322" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="D322">
-        <v>11.7</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -7364,10 +7374,10 @@
         <v>2928</v>
       </c>
       <c r="C323" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D323">
-        <v>11.17</v>
+        <v>14.61</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -7384,10 +7394,10 @@
         <v>2928</v>
       </c>
       <c r="C324" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="D324">
-        <v>11.17</v>
+        <v>11.7</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -7404,7 +7414,7 @@
         <v>2928</v>
       </c>
       <c r="C325" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D325">
         <v>11.17</v>
@@ -7424,10 +7434,10 @@
         <v>2928</v>
       </c>
       <c r="C326" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D326">
-        <v>14.61</v>
+        <v>11.17</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -7444,7 +7454,7 @@
         <v>2928</v>
       </c>
       <c r="C327" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D327">
         <v>11.17</v>
@@ -7464,10 +7474,10 @@
         <v>2928</v>
       </c>
       <c r="C328" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D328">
-        <v>11.17</v>
+        <v>14.61</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -7484,24 +7494,2580 @@
         <v>2928</v>
       </c>
       <c r="C329" t="s">
+        <v>163</v>
+      </c>
+      <c r="D329">
+        <v>11.17</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>169</v>
+      </c>
+      <c r="B330">
+        <v>2928</v>
+      </c>
+      <c r="C330" t="s">
+        <v>164</v>
+      </c>
+      <c r="D330">
+        <v>11.17</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>169</v>
+      </c>
+      <c r="B331">
+        <v>2928</v>
+      </c>
+      <c r="C331" t="s">
         <v>170</v>
       </c>
-      <c r="D329">
+      <c r="D331">
         <v>9</v>
       </c>
-      <c r="E329">
-        <v>0</v>
-      </c>
-      <c r="F329" t="s">
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>173</v>
+      </c>
+      <c r="B332">
+        <v>6951</v>
+      </c>
+      <c r="C332" t="s">
+        <v>25</v>
+      </c>
+      <c r="D332">
+        <v>16</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>173</v>
+      </c>
+      <c r="B333">
+        <v>6951</v>
+      </c>
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+      <c r="D333">
+        <v>16</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>173</v>
+      </c>
+      <c r="B334">
+        <v>6951</v>
+      </c>
+      <c r="C334" t="s">
+        <v>42</v>
+      </c>
+      <c r="D334">
+        <v>16</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>173</v>
+      </c>
+      <c r="B335">
+        <v>6951</v>
+      </c>
+      <c r="C335" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335">
+        <v>16</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>173</v>
+      </c>
+      <c r="B336">
+        <v>6951</v>
+      </c>
+      <c r="C336" t="s">
+        <v>58</v>
+      </c>
+      <c r="D336">
+        <v>15</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>173</v>
+      </c>
+      <c r="B337">
+        <v>6951</v>
+      </c>
+      <c r="C337" t="s">
+        <v>59</v>
+      </c>
+      <c r="D337">
+        <v>15</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>173</v>
+      </c>
+      <c r="B338">
+        <v>6951</v>
+      </c>
+      <c r="C338" t="s">
+        <v>60</v>
+      </c>
+      <c r="D338">
+        <v>19</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>173</v>
+      </c>
+      <c r="B339">
+        <v>6951</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3</v>
+      </c>
+      <c r="D339">
+        <v>19</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>173</v>
+      </c>
+      <c r="B340">
+        <v>6951</v>
+      </c>
+      <c r="C340" t="s">
+        <v>12</v>
+      </c>
+      <c r="D340">
+        <v>19</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>173</v>
+      </c>
+      <c r="B341">
+        <v>6951</v>
+      </c>
+      <c r="C341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341">
+        <v>19</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>173</v>
+      </c>
+      <c r="B342">
+        <v>6951</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342">
+        <v>19</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>173</v>
+      </c>
+      <c r="B343">
+        <v>6951</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343">
+        <v>19</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>173</v>
+      </c>
+      <c r="B344">
+        <v>6951</v>
+      </c>
+      <c r="C344" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344">
+        <v>19</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>173</v>
+      </c>
+      <c r="B345">
+        <v>6951</v>
+      </c>
+      <c r="C345" t="s">
+        <v>64</v>
+      </c>
+      <c r="D345">
+        <v>18</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>173</v>
+      </c>
+      <c r="B346">
+        <v>6951</v>
+      </c>
+      <c r="C346" t="s">
+        <v>65</v>
+      </c>
+      <c r="D346">
+        <v>19</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>173</v>
+      </c>
+      <c r="B347">
+        <v>6951</v>
+      </c>
+      <c r="C347" t="s">
+        <v>66</v>
+      </c>
+      <c r="D347">
+        <v>18</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>173</v>
+      </c>
+      <c r="B348">
+        <v>6951</v>
+      </c>
+      <c r="C348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348">
+        <v>16</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>173</v>
+      </c>
+      <c r="B349">
+        <v>6951</v>
+      </c>
+      <c r="C349" t="s">
+        <v>17</v>
+      </c>
+      <c r="D349">
+        <v>16</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>173</v>
+      </c>
+      <c r="B350">
+        <v>6951</v>
+      </c>
+      <c r="C350" t="s">
+        <v>40</v>
+      </c>
+      <c r="D350">
+        <v>16</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>173</v>
+      </c>
+      <c r="B351">
+        <v>6951</v>
+      </c>
+      <c r="C351" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351">
+        <v>19</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>173</v>
+      </c>
+      <c r="B352">
+        <v>6951</v>
+      </c>
+      <c r="C352" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352">
+        <v>19</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>173</v>
+      </c>
+      <c r="B353">
+        <v>6951</v>
+      </c>
+      <c r="C353" t="s">
+        <v>174</v>
+      </c>
+      <c r="D353">
+        <v>19</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>173</v>
+      </c>
+      <c r="B354">
+        <v>6951</v>
+      </c>
+      <c r="C354" t="s">
+        <v>67</v>
+      </c>
+      <c r="D354">
+        <v>19</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>173</v>
+      </c>
+      <c r="B355">
+        <v>6951</v>
+      </c>
+      <c r="C355" t="s">
+        <v>69</v>
+      </c>
+      <c r="D355">
+        <v>15</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>173</v>
+      </c>
+      <c r="B356">
+        <v>6951</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356">
+        <v>15</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>173</v>
+      </c>
+      <c r="B357">
+        <v>6951</v>
+      </c>
+      <c r="C357" t="s">
+        <v>71</v>
+      </c>
+      <c r="D357">
+        <v>15</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>173</v>
+      </c>
+      <c r="B358">
+        <v>6951</v>
+      </c>
+      <c r="C358" t="s">
+        <v>75</v>
+      </c>
+      <c r="D358">
+        <v>15</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>173</v>
+      </c>
+      <c r="B359">
+        <v>6951</v>
+      </c>
+      <c r="C359" t="s">
+        <v>72</v>
+      </c>
+      <c r="D359">
+        <v>15</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>173</v>
+      </c>
+      <c r="B360">
+        <v>6951</v>
+      </c>
+      <c r="C360" t="s">
+        <v>76</v>
+      </c>
+      <c r="D360">
+        <v>15</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>173</v>
+      </c>
+      <c r="B361">
+        <v>6951</v>
+      </c>
+      <c r="C361" t="s">
+        <v>77</v>
+      </c>
+      <c r="D361">
+        <v>15</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>173</v>
+      </c>
+      <c r="B362">
+        <v>6951</v>
+      </c>
+      <c r="C362" t="s">
+        <v>78</v>
+      </c>
+      <c r="D362">
+        <v>15</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>173</v>
+      </c>
+      <c r="B363">
+        <v>6951</v>
+      </c>
+      <c r="C363" t="s">
+        <v>80</v>
+      </c>
+      <c r="D363">
+        <v>15</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>173</v>
+      </c>
+      <c r="B364">
+        <v>6951</v>
+      </c>
+      <c r="C364" t="s">
+        <v>81</v>
+      </c>
+      <c r="D364">
+        <v>15</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>173</v>
+      </c>
+      <c r="B365">
+        <v>6951</v>
+      </c>
+      <c r="C365" t="s">
+        <v>83</v>
+      </c>
+      <c r="D365">
+        <v>15</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>173</v>
+      </c>
+      <c r="B366">
+        <v>6951</v>
+      </c>
+      <c r="C366" t="s">
+        <v>84</v>
+      </c>
+      <c r="D366">
+        <v>15</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>173</v>
+      </c>
+      <c r="B367">
+        <v>6951</v>
+      </c>
+      <c r="C367" t="s">
+        <v>85</v>
+      </c>
+      <c r="D367">
+        <v>15</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>173</v>
+      </c>
+      <c r="B368">
+        <v>6951</v>
+      </c>
+      <c r="C368" t="s">
+        <v>86</v>
+      </c>
+      <c r="D368">
+        <v>15</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>173</v>
+      </c>
+      <c r="B369">
+        <v>6951</v>
+      </c>
+      <c r="C369" t="s">
+        <v>87</v>
+      </c>
+      <c r="D369">
+        <v>15</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>173</v>
+      </c>
+      <c r="B370">
+        <v>6951</v>
+      </c>
+      <c r="C370" t="s">
+        <v>88</v>
+      </c>
+      <c r="D370">
+        <v>15</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>173</v>
+      </c>
+      <c r="B371">
+        <v>6951</v>
+      </c>
+      <c r="C371" t="s">
+        <v>89</v>
+      </c>
+      <c r="D371">
+        <v>15</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>173</v>
+      </c>
+      <c r="B372">
+        <v>6951</v>
+      </c>
+      <c r="C372" t="s">
+        <v>90</v>
+      </c>
+      <c r="D372">
+        <v>15</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>173</v>
+      </c>
+      <c r="B373">
+        <v>6951</v>
+      </c>
+      <c r="C373" t="s">
+        <v>92</v>
+      </c>
+      <c r="D373">
+        <v>14</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>173</v>
+      </c>
+      <c r="B374">
+        <v>6951</v>
+      </c>
+      <c r="C374" t="s">
+        <v>91</v>
+      </c>
+      <c r="D374">
+        <v>14</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>173</v>
+      </c>
+      <c r="B375">
+        <v>6951</v>
+      </c>
+      <c r="C375" t="s">
+        <v>108</v>
+      </c>
+      <c r="D375">
+        <v>16</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>173</v>
+      </c>
+      <c r="B376">
+        <v>6951</v>
+      </c>
+      <c r="C376" t="s">
+        <v>106</v>
+      </c>
+      <c r="D376">
+        <v>16</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>173</v>
+      </c>
+      <c r="B377">
+        <v>6951</v>
+      </c>
+      <c r="C377" t="s">
+        <v>107</v>
+      </c>
+      <c r="D377">
+        <v>16</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>173</v>
+      </c>
+      <c r="B378">
+        <v>6951</v>
+      </c>
+      <c r="C378" t="s">
+        <v>103</v>
+      </c>
+      <c r="D378">
+        <v>16</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>173</v>
+      </c>
+      <c r="B379">
+        <v>6951</v>
+      </c>
+      <c r="C379" t="s">
+        <v>104</v>
+      </c>
+      <c r="D379">
+        <v>16</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>173</v>
+      </c>
+      <c r="B380">
+        <v>6951</v>
+      </c>
+      <c r="C380" t="s">
+        <v>100</v>
+      </c>
+      <c r="D380">
+        <v>17</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>173</v>
+      </c>
+      <c r="B381">
+        <v>6951</v>
+      </c>
+      <c r="C381" t="s">
+        <v>101</v>
+      </c>
+      <c r="D381">
+        <v>17</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>173</v>
+      </c>
+      <c r="B382">
+        <v>6951</v>
+      </c>
+      <c r="C382" t="s">
+        <v>96</v>
+      </c>
+      <c r="D382">
+        <v>17</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+      <c r="F382" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>173</v>
+      </c>
+      <c r="B383">
+        <v>6951</v>
+      </c>
+      <c r="C383" t="s">
+        <v>97</v>
+      </c>
+      <c r="D383">
+        <v>17</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>173</v>
+      </c>
+      <c r="B384">
+        <v>6951</v>
+      </c>
+      <c r="C384" t="s">
+        <v>98</v>
+      </c>
+      <c r="D384">
+        <v>17</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>173</v>
+      </c>
+      <c r="B385">
+        <v>6951</v>
+      </c>
+      <c r="C385" t="s">
+        <v>99</v>
+      </c>
+      <c r="D385">
+        <v>17</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>173</v>
+      </c>
+      <c r="B386">
+        <v>6951</v>
+      </c>
+      <c r="C386" t="s">
+        <v>51</v>
+      </c>
+      <c r="D386">
+        <v>16</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>173</v>
+      </c>
+      <c r="B387">
+        <v>6951</v>
+      </c>
+      <c r="C387" t="s">
+        <v>50</v>
+      </c>
+      <c r="D387">
+        <v>16</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>173</v>
+      </c>
+      <c r="B388">
+        <v>6951</v>
+      </c>
+      <c r="C388" t="s">
+        <v>49</v>
+      </c>
+      <c r="D388">
+        <v>16</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>173</v>
+      </c>
+      <c r="B389">
+        <v>6951</v>
+      </c>
+      <c r="C389" t="s">
+        <v>52</v>
+      </c>
+      <c r="D389">
+        <v>16</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>173</v>
+      </c>
+      <c r="B390">
+        <v>6951</v>
+      </c>
+      <c r="C390" t="s">
+        <v>48</v>
+      </c>
+      <c r="D390">
+        <v>15</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>173</v>
+      </c>
+      <c r="B391">
+        <v>6951</v>
+      </c>
+      <c r="C391" t="s">
+        <v>47</v>
+      </c>
+      <c r="D391">
+        <v>15</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>173</v>
+      </c>
+      <c r="B392">
+        <v>6951</v>
+      </c>
+      <c r="C392" t="s">
+        <v>20</v>
+      </c>
+      <c r="D392">
+        <v>15</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>173</v>
+      </c>
+      <c r="B393">
+        <v>6951</v>
+      </c>
+      <c r="C393" t="s">
+        <v>110</v>
+      </c>
+      <c r="D393">
+        <v>13</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>173</v>
+      </c>
+      <c r="B394">
+        <v>6951</v>
+      </c>
+      <c r="C394" t="s">
+        <v>111</v>
+      </c>
+      <c r="D394">
+        <v>13</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>173</v>
+      </c>
+      <c r="B395">
+        <v>6951</v>
+      </c>
+      <c r="C395" t="s">
+        <v>112</v>
+      </c>
+      <c r="D395">
+        <v>14</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>173</v>
+      </c>
+      <c r="B396">
+        <v>6951</v>
+      </c>
+      <c r="C396" t="s">
+        <v>113</v>
+      </c>
+      <c r="D396">
+        <v>14</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>173</v>
+      </c>
+      <c r="B397">
+        <v>6951</v>
+      </c>
+      <c r="C397" t="s">
+        <v>114</v>
+      </c>
+      <c r="D397">
+        <v>13</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>173</v>
+      </c>
+      <c r="B398">
+        <v>6951</v>
+      </c>
+      <c r="C398" t="s">
+        <v>115</v>
+      </c>
+      <c r="D398">
+        <v>13</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>173</v>
+      </c>
+      <c r="B399">
+        <v>6951</v>
+      </c>
+      <c r="C399" t="s">
+        <v>116</v>
+      </c>
+      <c r="D399">
+        <v>14</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>173</v>
+      </c>
+      <c r="B400">
+        <v>6951</v>
+      </c>
+      <c r="C400" t="s">
+        <v>117</v>
+      </c>
+      <c r="D400">
+        <v>14</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>173</v>
+      </c>
+      <c r="B401">
+        <v>6951</v>
+      </c>
+      <c r="C401" t="s">
+        <v>118</v>
+      </c>
+      <c r="D401">
+        <v>15</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>173</v>
+      </c>
+      <c r="B402">
+        <v>6951</v>
+      </c>
+      <c r="C402" t="s">
+        <v>119</v>
+      </c>
+      <c r="D402">
+        <v>18</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>173</v>
+      </c>
+      <c r="B403">
+        <v>6951</v>
+      </c>
+      <c r="C403" t="s">
+        <v>120</v>
+      </c>
+      <c r="D403">
+        <v>18</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>173</v>
+      </c>
+      <c r="B404">
+        <v>6951</v>
+      </c>
+      <c r="C404" t="s">
+        <v>121</v>
+      </c>
+      <c r="D404">
+        <v>16</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>173</v>
+      </c>
+      <c r="B405">
+        <v>6951</v>
+      </c>
+      <c r="C405" t="s">
+        <v>122</v>
+      </c>
+      <c r="D405">
+        <v>16</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>173</v>
+      </c>
+      <c r="B406">
+        <v>6951</v>
+      </c>
+      <c r="C406" t="s">
+        <v>123</v>
+      </c>
+      <c r="D406">
+        <v>18</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>173</v>
+      </c>
+      <c r="B407">
+        <v>6951</v>
+      </c>
+      <c r="C407" t="s">
+        <v>124</v>
+      </c>
+      <c r="D407">
+        <v>18</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>173</v>
+      </c>
+      <c r="B408">
+        <v>6951</v>
+      </c>
+      <c r="C408" t="s">
+        <v>125</v>
+      </c>
+      <c r="D408">
+        <v>18</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>173</v>
+      </c>
+      <c r="B409">
+        <v>6951</v>
+      </c>
+      <c r="C409" t="s">
+        <v>127</v>
+      </c>
+      <c r="D409">
+        <v>18</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>173</v>
+      </c>
+      <c r="B410">
+        <v>6951</v>
+      </c>
+      <c r="C410" t="s">
+        <v>129</v>
+      </c>
+      <c r="D410">
+        <v>18</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>173</v>
+      </c>
+      <c r="B411">
+        <v>6951</v>
+      </c>
+      <c r="C411" t="s">
+        <v>130</v>
+      </c>
+      <c r="D411">
+        <v>18</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>173</v>
+      </c>
+      <c r="B412">
+        <v>6951</v>
+      </c>
+      <c r="C412" t="s">
+        <v>131</v>
+      </c>
+      <c r="D412">
+        <v>18</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>173</v>
+      </c>
+      <c r="B413">
+        <v>6951</v>
+      </c>
+      <c r="C413" t="s">
+        <v>132</v>
+      </c>
+      <c r="D413">
+        <v>16</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>173</v>
+      </c>
+      <c r="B414">
+        <v>6951</v>
+      </c>
+      <c r="C414" t="s">
+        <v>133</v>
+      </c>
+      <c r="D414">
+        <v>16</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>173</v>
+      </c>
+      <c r="B415">
+        <v>6951</v>
+      </c>
+      <c r="C415" t="s">
+        <v>134</v>
+      </c>
+      <c r="D415">
+        <v>16</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>173</v>
+      </c>
+      <c r="B416">
+        <v>6951</v>
+      </c>
+      <c r="C416" t="s">
+        <v>171</v>
+      </c>
+      <c r="D416">
+        <v>16</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>173</v>
+      </c>
+      <c r="B417">
+        <v>6951</v>
+      </c>
+      <c r="C417" t="s">
+        <v>135</v>
+      </c>
+      <c r="D417">
+        <v>17</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>173</v>
+      </c>
+      <c r="B418">
+        <v>6951</v>
+      </c>
+      <c r="C418" t="s">
+        <v>136</v>
+      </c>
+      <c r="D418">
+        <v>17</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+      <c r="F418" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>173</v>
+      </c>
+      <c r="B419">
+        <v>6951</v>
+      </c>
+      <c r="C419" t="s">
+        <v>37</v>
+      </c>
+      <c r="D419">
+        <v>16</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+      <c r="F419" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>173</v>
+      </c>
+      <c r="B420">
+        <v>6951</v>
+      </c>
+      <c r="C420" t="s">
+        <v>62</v>
+      </c>
+      <c r="D420">
+        <v>16</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>173</v>
+      </c>
+      <c r="B421">
+        <v>6951</v>
+      </c>
+      <c r="C421" t="s">
+        <v>63</v>
+      </c>
+      <c r="D421">
+        <v>16</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>173</v>
+      </c>
+      <c r="B422">
+        <v>6951</v>
+      </c>
+      <c r="C422" t="s">
+        <v>139</v>
+      </c>
+      <c r="D422">
+        <v>17</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>173</v>
+      </c>
+      <c r="B423">
+        <v>6951</v>
+      </c>
+      <c r="C423" t="s">
+        <v>140</v>
+      </c>
+      <c r="D423">
+        <v>17</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>173</v>
+      </c>
+      <c r="B424">
+        <v>6951</v>
+      </c>
+      <c r="C424" t="s">
+        <v>141</v>
+      </c>
+      <c r="D424">
+        <v>17</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>173</v>
+      </c>
+      <c r="B425">
+        <v>6951</v>
+      </c>
+      <c r="C425" t="s">
+        <v>30</v>
+      </c>
+      <c r="D425">
+        <v>16</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="F425" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>173</v>
+      </c>
+      <c r="B426">
+        <v>6951</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2</v>
+      </c>
+      <c r="D426">
+        <v>16</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>173</v>
+      </c>
+      <c r="B427">
+        <v>6951</v>
+      </c>
+      <c r="C427" t="s">
+        <v>31</v>
+      </c>
+      <c r="D427">
+        <v>16</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="F427" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>173</v>
+      </c>
+      <c r="B428">
+        <v>6951</v>
+      </c>
+      <c r="C428" t="s">
+        <v>33</v>
+      </c>
+      <c r="D428">
+        <v>17</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="F428" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>173</v>
+      </c>
+      <c r="B429">
+        <v>6951</v>
+      </c>
+      <c r="C429" t="s">
+        <v>35</v>
+      </c>
+      <c r="D429">
+        <v>17</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="F429" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>173</v>
+      </c>
+      <c r="B430">
+        <v>6951</v>
+      </c>
+      <c r="C430" t="s">
+        <v>34</v>
+      </c>
+      <c r="D430">
+        <v>17</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>173</v>
+      </c>
+      <c r="B431">
+        <v>6951</v>
+      </c>
+      <c r="C431" t="s">
+        <v>43</v>
+      </c>
+      <c r="D431">
+        <v>15</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>173</v>
+      </c>
+      <c r="B432">
+        <v>6951</v>
+      </c>
+      <c r="C432" t="s">
+        <v>44</v>
+      </c>
+      <c r="D432">
+        <v>15</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>173</v>
+      </c>
+      <c r="B433">
+        <v>6951</v>
+      </c>
+      <c r="C433" t="s">
+        <v>23</v>
+      </c>
+      <c r="D433">
+        <v>17</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>173</v>
+      </c>
+      <c r="B434">
+        <v>6951</v>
+      </c>
+      <c r="C434" t="s">
+        <v>22</v>
+      </c>
+      <c r="D434">
+        <v>17</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>173</v>
+      </c>
+      <c r="B435">
+        <v>6951</v>
+      </c>
+      <c r="C435" t="s">
+        <v>24</v>
+      </c>
+      <c r="D435">
+        <v>15</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>173</v>
+      </c>
+      <c r="B436">
+        <v>6951</v>
+      </c>
+      <c r="C436" t="s">
+        <v>29</v>
+      </c>
+      <c r="D436">
+        <v>15</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>173</v>
+      </c>
+      <c r="B437">
+        <v>6951</v>
+      </c>
+      <c r="C437" t="s">
+        <v>56</v>
+      </c>
+      <c r="D437">
+        <v>17</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>173</v>
+      </c>
+      <c r="B438">
+        <v>6951</v>
+      </c>
+      <c r="C438" t="s">
+        <v>55</v>
+      </c>
+      <c r="D438">
+        <v>17</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>173</v>
+      </c>
+      <c r="B439">
+        <v>6951</v>
+      </c>
+      <c r="C439" t="s">
+        <v>54</v>
+      </c>
+      <c r="D439">
+        <v>19</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+      <c r="F439" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>173</v>
+      </c>
+      <c r="B440">
+        <v>6951</v>
+      </c>
+      <c r="C440" t="s">
+        <v>144</v>
+      </c>
+      <c r="D440">
+        <v>19</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>173</v>
+      </c>
+      <c r="B441">
+        <v>6951</v>
+      </c>
+      <c r="C441" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441">
+        <v>16</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
+      <c r="F441" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>173</v>
+      </c>
+      <c r="B442">
+        <v>6951</v>
+      </c>
+      <c r="C442" t="s">
+        <v>18</v>
+      </c>
+      <c r="D442">
+        <v>16</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>173</v>
+      </c>
+      <c r="B443">
+        <v>6951</v>
+      </c>
+      <c r="C443" t="s">
+        <v>19</v>
+      </c>
+      <c r="D443">
+        <v>17</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>173</v>
+      </c>
+      <c r="B444">
+        <v>6951</v>
+      </c>
+      <c r="C444" t="s">
+        <v>143</v>
+      </c>
+      <c r="D444">
+        <v>17</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+      <c r="F444" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>173</v>
+      </c>
+      <c r="B445">
+        <v>6951</v>
+      </c>
+      <c r="C445" t="s">
+        <v>148</v>
+      </c>
+      <c r="D445">
+        <v>16</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+      <c r="F445" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>173</v>
+      </c>
+      <c r="B446">
+        <v>6951</v>
+      </c>
+      <c r="C446" t="s">
+        <v>150</v>
+      </c>
+      <c r="D446">
+        <v>16</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>173</v>
+      </c>
+      <c r="B447">
+        <v>6951</v>
+      </c>
+      <c r="C447" t="s">
+        <v>151</v>
+      </c>
+      <c r="D447">
+        <v>16</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+      <c r="F447" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>173</v>
+      </c>
+      <c r="B448">
+        <v>6951</v>
+      </c>
+      <c r="C448" t="s">
+        <v>152</v>
+      </c>
+      <c r="D448">
+        <v>17</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>173</v>
+      </c>
+      <c r="B449">
+        <v>6951</v>
+      </c>
+      <c r="C449" t="s">
+        <v>154</v>
+      </c>
+      <c r="D449">
+        <v>19</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>173</v>
+      </c>
+      <c r="B450">
+        <v>6951</v>
+      </c>
+      <c r="C450" t="s">
+        <v>155</v>
+      </c>
+      <c r="D450">
+        <v>19</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>173</v>
+      </c>
+      <c r="B451">
+        <v>6951</v>
+      </c>
+      <c r="C451" t="s">
+        <v>156</v>
+      </c>
+      <c r="D451">
+        <v>19</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>173</v>
+      </c>
+      <c r="B452">
+        <v>6951</v>
+      </c>
+      <c r="C452" t="s">
+        <v>157</v>
+      </c>
+      <c r="D452">
+        <v>19</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
+      <c r="F452" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>173</v>
+      </c>
+      <c r="B453">
+        <v>6951</v>
+      </c>
+      <c r="C453" t="s">
+        <v>159</v>
+      </c>
+      <c r="D453">
+        <v>16</v>
+      </c>
+      <c r="E453">
+        <v>1</v>
+      </c>
+      <c r="F453" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>173</v>
+      </c>
+      <c r="B454">
+        <v>6951</v>
+      </c>
+      <c r="C454" t="s">
+        <v>160</v>
+      </c>
+      <c r="D454">
+        <v>16</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>173</v>
+      </c>
+      <c r="B455">
+        <v>6951</v>
+      </c>
+      <c r="C455" t="s">
+        <v>161</v>
+      </c>
+      <c r="D455">
+        <v>16</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
+      <c r="F455" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>173</v>
+      </c>
+      <c r="B456">
+        <v>6951</v>
+      </c>
+      <c r="C456" t="s">
+        <v>162</v>
+      </c>
+      <c r="D456">
+        <v>16</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>173</v>
+      </c>
+      <c r="B457">
+        <v>6951</v>
+      </c>
+      <c r="C457" t="s">
+        <v>163</v>
+      </c>
+      <c r="D457">
+        <v>16</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F329" xr:uid="{177C707F-8F8B-41AD-8143-208A01ADA38D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A313:F321">
-      <sortCondition ref="C1:C329"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F335" xr:uid="{177C707F-8F8B-41AD-8143-208A01ADA38D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>